--- a/TA buku/Results/SERVICE.xlsx
+++ b/TA buku/Results/SERVICE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="379">
   <si>
     <t>id</t>
   </si>
@@ -733,6 +733,9 @@
     <t>intimate</t>
   </si>
   <si>
+    <t>-|-</t>
+  </si>
+  <si>
     <t>nonsense</t>
   </si>
   <si>
@@ -745,7 +748,10 @@
     <t>professional</t>
   </si>
   <si>
-    <t>enjoying</t>
+    <t>sure|sure</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>proper</t>
@@ -787,25 +793,22 @@
     <t>terrible</t>
   </si>
   <si>
-    <t>concerned</t>
-  </si>
-  <si>
-    <t>complained</t>
+    <t>concerned|concerned</t>
+  </si>
+  <si>
+    <t>more</t>
   </si>
   <si>
     <t>worst|worst</t>
   </si>
   <si>
-    <t>smile</t>
+    <t>much|much|much|much</t>
   </si>
   <si>
     <t>last|last</t>
   </si>
   <si>
-    <t>promptly</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>okay|okay</t>
   </si>
   <si>
     <t>attentive|attentive</t>
@@ -1542,10 +1545,10 @@
         <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1562,10 +1565,10 @@
         <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1582,10 +1585,10 @@
         <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1602,10 +1605,10 @@
         <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1622,10 +1625,10 @@
         <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1642,10 +1645,10 @@
         <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1662,10 +1665,10 @@
         <v>214</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1682,10 +1685,10 @@
         <v>215</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1702,10 +1705,10 @@
         <v>216</v>
       </c>
       <c r="E10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1722,10 +1725,10 @@
         <v>217</v>
       </c>
       <c r="E11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1742,10 +1745,10 @@
         <v>218</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F12" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1762,10 +1765,10 @@
         <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1782,10 +1785,10 @@
         <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1802,10 +1805,10 @@
         <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1822,10 +1825,10 @@
         <v>222</v>
       </c>
       <c r="E16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F16" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1842,10 +1845,10 @@
         <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1862,10 +1865,10 @@
         <v>223</v>
       </c>
       <c r="E18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1882,10 +1885,10 @@
         <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1902,10 +1905,10 @@
         <v>225</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F20" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1922,10 +1925,10 @@
         <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1942,10 +1945,10 @@
         <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1962,10 +1965,10 @@
         <v>227</v>
       </c>
       <c r="E23" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1982,10 +1985,10 @@
         <v>228</v>
       </c>
       <c r="E24" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2002,10 +2005,10 @@
         <v>229</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2022,10 +2025,10 @@
         <v>230</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2042,10 +2045,10 @@
         <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2062,10 +2065,10 @@
         <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2082,10 +2085,10 @@
         <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2102,10 +2105,10 @@
         <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2122,10 +2125,10 @@
         <v>233</v>
       </c>
       <c r="E31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2142,10 +2145,10 @@
         <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2162,10 +2165,10 @@
         <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2182,10 +2185,10 @@
         <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2202,10 +2205,10 @@
         <v>235</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2222,10 +2225,10 @@
         <v>236</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2242,10 +2245,10 @@
         <v>209</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2262,10 +2265,10 @@
         <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2282,10 +2285,10 @@
         <v>238</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2302,10 +2305,10 @@
         <v>218</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2318,11 +2321,14 @@
       <c r="C41" t="s">
         <v>146</v>
       </c>
+      <c r="D41" t="s">
+        <v>239</v>
+      </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2339,10 +2345,10 @@
         <v>218</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2359,10 +2365,10 @@
         <v>236</v>
       </c>
       <c r="E43" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2376,13 +2382,13 @@
         <v>149</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2396,13 +2402,13 @@
         <v>150</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2416,13 +2422,13 @@
         <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2436,13 +2442,13 @@
         <v>152</v>
       </c>
       <c r="D47" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2456,13 +2462,13 @@
         <v>153</v>
       </c>
       <c r="D48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2476,13 +2482,13 @@
         <v>154</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2499,10 +2505,10 @@
         <v>220</v>
       </c>
       <c r="E50" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2515,11 +2521,14 @@
       <c r="C51" t="s">
         <v>156</v>
       </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
       <c r="E51" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2533,13 +2542,13 @@
         <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E52" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2553,13 +2562,13 @@
         <v>158</v>
       </c>
       <c r="D53" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2576,10 +2585,10 @@
         <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2593,13 +2602,13 @@
         <v>160</v>
       </c>
       <c r="D55" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2616,10 +2625,10 @@
         <v>229</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2633,13 +2642,13 @@
         <v>162</v>
       </c>
       <c r="D57" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2656,10 +2665,10 @@
         <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2673,13 +2682,13 @@
         <v>164</v>
       </c>
       <c r="D59" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2693,13 +2702,13 @@
         <v>165</v>
       </c>
       <c r="D60" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E60" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2713,13 +2722,13 @@
         <v>166</v>
       </c>
       <c r="D61" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E61" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2736,10 +2745,10 @@
         <v>209</v>
       </c>
       <c r="E62" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2756,10 +2765,10 @@
         <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F63" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2776,10 +2785,10 @@
         <v>209</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2796,10 +2805,10 @@
         <v>209</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F65" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2816,10 +2825,10 @@
         <v>220</v>
       </c>
       <c r="E66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2833,13 +2842,13 @@
         <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2852,11 +2861,14 @@
       <c r="C68" t="s">
         <v>173</v>
       </c>
+      <c r="D68" t="s">
+        <v>239</v>
+      </c>
       <c r="E68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2870,13 +2882,13 @@
         <v>174</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E69" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2890,13 +2902,13 @@
         <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2910,13 +2922,13 @@
         <v>176</v>
       </c>
       <c r="D71" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2933,10 +2945,10 @@
         <v>233</v>
       </c>
       <c r="E72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F72" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2950,13 +2962,13 @@
         <v>178</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2973,10 +2985,10 @@
         <v>226</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2990,13 +3002,13 @@
         <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3010,13 +3022,13 @@
         <v>181</v>
       </c>
       <c r="D76" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3030,13 +3042,13 @@
         <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -3050,13 +3062,13 @@
         <v>183</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -3070,13 +3082,13 @@
         <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E79" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -3090,13 +3102,13 @@
         <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -3110,13 +3122,13 @@
         <v>186</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E81" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F81" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3130,13 +3142,13 @@
         <v>187</v>
       </c>
       <c r="D82" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E82" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -3149,11 +3161,14 @@
       <c r="C83" t="s">
         <v>188</v>
       </c>
+      <c r="D83" t="s">
+        <v>239</v>
+      </c>
       <c r="E83" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -3167,13 +3182,13 @@
         <v>189</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3190,10 +3205,10 @@
         <v>226</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3207,13 +3222,13 @@
         <v>191</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E86" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3227,13 +3242,13 @@
         <v>192</v>
       </c>
       <c r="D87" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E87" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3250,10 +3265,10 @@
         <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3267,13 +3282,13 @@
         <v>194</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F89" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3287,13 +3302,13 @@
         <v>195</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F90" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3307,13 +3322,13 @@
         <v>196</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F91" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3327,13 +3342,13 @@
         <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E92" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3347,13 +3362,13 @@
         <v>198</v>
       </c>
       <c r="D93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F93" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3366,11 +3381,14 @@
       <c r="C94" t="s">
         <v>199</v>
       </c>
+      <c r="D94" t="s">
+        <v>245</v>
+      </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F94" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3384,13 +3402,13 @@
         <v>200</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F95" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3404,13 +3422,13 @@
         <v>201</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3424,13 +3442,13 @@
         <v>202</v>
       </c>
       <c r="D97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3444,13 +3462,13 @@
         <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3464,13 +3482,13 @@
         <v>204</v>
       </c>
       <c r="D99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F99" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3484,13 +3502,13 @@
         <v>205</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F100" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3504,13 +3522,13 @@
         <v>206</v>
       </c>
       <c r="D101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F101" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3524,13 +3542,13 @@
         <v>207</v>
       </c>
       <c r="D102" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F102" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3544,13 +3562,13 @@
         <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F103" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
